--- a/medicine/Soins infirmiers et profession infirmière/1908_en_santé_et_médecine/1908_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1908_en_santé_et_médecine/1908_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1908_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1908_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1908 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1908_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1908_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2 février : Rencontre à Vienne entre Freud et le psychiatre hongrois Sandor Ferenczi.
 6 février : Première auto-transplantation rénale, réalisée sur une chienne par Alexis Carrel.
 27 avril : Premier congrès international de psychanalyse à Salzbourg.
-21 juin : Rimski-Korsakov meurt d'un infarctus du myocarde[1].
-3-5 septembre : Dixième session, tenue à Genève, du Congrès français de médecine[2].
-5 septembre : Parution de la 5e édition du Codex[3],[4].
-25 octobre : Inauguration du centre hospitalier de Givors[5],[6],[7].
-1er novembre : Ouverture de la pharmacie mutualiste de Lorient[8].
-Ouverture, au Mans, de la pharmacie Dallier-Albert-Buisson[9].</t>
+21 juin : Rimski-Korsakov meurt d'un infarctus du myocarde.
+3-5 septembre : Dixième session, tenue à Genève, du Congrès français de médecine.
+5 septembre : Parution de la 5e édition du Codex,.
+25 octobre : Inauguration du centre hospitalier de Givors.
+1er novembre : Ouverture de la pharmacie mutualiste de Lorient.
+Ouverture, au Mans, de la pharmacie Dallier-Albert-Buisson.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1908_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1908_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Henri Bertrand, Le druidisme et la médecine en Gaule, thèse, Montpellier.</t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1908_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1908_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Nobel de médecine : Paul Ehrlich et Élie Metchnikov, « en reconnaissance de leurs travaux sur l'immunité[10] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Paul Ehrlich et Élie Metchnikov, « en reconnaissance de leurs travaux sur l'immunité ».</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1908_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1908_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>13 février : Marcel Baltazard (mort en 1971), épidémiologiste et biologiste français.
-3 mai : Fernand Gallais (mort en 2002), biochimiste et pharmacologiste français[11].
+3 mai : Fernand Gallais (mort en 2002), biochimiste et pharmacologiste français.
 7 mai : Leo Sternbach (mort en 2005), pharmacologue américain.
 15 mai : Jacques Oudin (mort en 1985), immunologiste français, récipiendaire du prix Paul-Ehrlich-et-Ludwig-Darmstaedter en 1961 et de la médaille d'or du CNRS en 1972.
 17 juin : Jacques Ménétrier, médecin français, mort le 28 juillet 1986.
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1908_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1908_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,30 +667,32 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>13 avril : Victor Cornil (né en 1837), histologiste, anatomo-pathologiste et homme politique français.
 15 avril : Antoine Béchamp (né en 1816), médecin, chimiste et pharmacologiste français.
 24 avril : Victor Galtier (né en 1846), vétérinaire français, spécialiste des maladies contagieuses, de la police sanitaire et du droit médical.
-24 avril : Alfred Riche (né en 1829), chimiste et pharmacologiste français[12].
-12 juin : Jean-Louis Rouis (né en 1822), médecin, officier du corps de santé des armées françaises[13].
-18 juin : Auguste Reverdin (né en 1848), chirurgien suisse, spécialiste de l'asepsie et de l'antisepsie[14].
-30 juin : Eugène Gilson (né en 1862), médecin belge[15].
+24 avril : Alfred Riche (né en 1829), chimiste et pharmacologiste français.
+12 juin : Jean-Louis Rouis (né en 1822), médecin, officier du corps de santé des armées françaises.
+18 juin : Auguste Reverdin (né en 1848), chirurgien suisse, spécialiste de l'asepsie et de l'antisepsie.
+30 juin : Eugène Gilson (né en 1862), médecin belge.
 9 juillet : Masanao Gotō (né en 1857), léprologue japonais.
 17 octobre : Paul Berger (né en 1845), chirurgien, obstétricien et clinicien français.
 10 novembre : Marie-Théophile Griffon du Bellay (né en 1829), médecin et explorateur français.
 18 novembre : Ernest Hamy (né en 1842), anthropologue et ethnologue français, médecin de formation.
-19 novembre : Georges Félizet (né en 1844, chirurgien français[16].
+19 novembre : Georges Félizet (né en 1844, chirurgien français.
 24 novembre : Alix Joffroy (né en 1844), neurologue, neuropathologiste et psychiatre français, élève de Charcot.
 5 décembre : Charles Edward Beevor (né en 1854), neurologue et anatomiste anglais.
-18 décembre : Jules Chauvel (né en 1841), ophtalmologiste français[17].
-24 décembre : René Henri Blache (né en 1839), médecin français[18].
+18 décembre : Jules Chauvel (né en 1841), ophtalmologiste français.
+24 décembre : René Henri Blache (né en 1839), médecin français.
 Date inconnue
-Raoul Baron (né en 1852), vétérinaire, spécialiste de l'élevage, inventeur du concept de zootechnie, directeur de l'école vétérinaire d'Alfort de 1920 à 1923[19].
-Emmanuel Blanche (né en 1824), médecin et naturaliste français[20].
-Albert Carrier (né en 1841), médecin français[21].
+Raoul Baron (né en 1852), vétérinaire, spécialiste de l'élevage, inventeur du concept de zootechnie, directeur de l'école vétérinaire d'Alfort de 1920 à 1923.
+Emmanuel Blanche (né en 1824), médecin et naturaliste français.
+Albert Carrier (né en 1841), médecin français.
 Charles Chamberland (né en 1851), biologiste et physicien français, spécialiste de la stérilisation, collaborateur de Pasteur.
-Justin Lemaistre (né en 1847), médecin français[22].</t>
+Justin Lemaistre (né en 1847), médecin français.</t>
         </is>
       </c>
     </row>
